--- a/ctl-site/src/assets/MUSICA.xlsx
+++ b/ctl-site/src/assets/MUSICA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ctl-angular\ctl-angular\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ctl-site\ctl-site\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260EA5DC-4F81-4A07-BB33-3D2366529A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422BEF7-7F25-45E5-908F-730152746C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1200" windowWidth="17280" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DESCRIÇÃO COMPLETA</t>
   </si>
@@ -49,6 +49,9 @@
   <si>
     <t>DESCRIÇÃO PEQUENA 
 (Topo da página)</t>
+  </si>
+  <si>
+    <t>Teste upload excel</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -169,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +478,9 @@
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
